--- a/biology/Histoire de la zoologie et de la botanique/Werner_Ladiges/Werner_Ladiges.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Werner_Ladiges/Werner_Ladiges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Ladiges (Werner August Franz Louis Ladiges, né le 15 août 1910 à Hambourg, mort le 13 novembre 1984  ib.) est un zoologiste et ichtyologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Ladiges a étudié la zoologie à Innsbruck et à Hambourg, où il a reçu son doctorat en 1934.
 Il travaille au Musée zoologique de Hambourg en tant qu'ichtyologue et est connu des aquariophiles notamment comme rédacteur en chef de la revue d'aquariophilie TI - Tatsachen und Informationen aus der Aquaristik publiée par le fabricant d'accessoires Tetra GmbH.
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ladigesia Géry, 1968 lui a été dédié en son honneur ainsi que Marosatherina ladigesi Ahl, 1936,  un poisson de la famille des Melanotaeniidae
 </t>
